--- a/example/deals.xlsx
+++ b/example/deals.xlsx
@@ -5,13 +5,14 @@
   <x:workbookPr showObjects="all" backupFile="false" codeName="ThisWorkbook"/>
   <x:workbookProtection/>
   <x:bookViews>
-    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Template" sheetId="1" r:id="rId2"/>
     <x:sheet name="ATOM" sheetId="2" r:id="rId3"/>
-    <x:sheet name="KSM" sheetId="3" r:id="rId4"/>
-    <x:sheet name="XCH" sheetId="4" r:id="rId5"/>
+    <x:sheet name="DOT" sheetId="3" r:id="rId4"/>
+    <x:sheet name="KSM" sheetId="4" r:id="rId5"/>
+    <x:sheet name="XCH" sheetId="5" r:id="rId6"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.001"/>
@@ -624,7 +625,7 @@
       <x:selection activeCell="A3" sqref="A3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.956406" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -752,11 +753,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:H42"/>
   <x:sheetViews>
-    <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="H14" sqref="H14"/>
+    <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
+      <x:selection activeCell="E21" sqref="E21"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.956406" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -918,6 +919,9 @@
       <x:c r="H19" s="0" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
+    <x:row r="21" spans="1:1024">
+      <x:c r="E21" s="0" t="s"/>
+    </x:row>
     <x:row r="26" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="E26" s="0" t="s"/>
     </x:row>
@@ -949,13 +953,13 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="false"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H32"/>
+  <x:dimension ref="A1:H27"/>
   <x:sheetViews>
     <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="E7" sqref="E7"/>
+      <x:selection activeCell="B3" sqref="B3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.956406" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -995,114 +999,67 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A3" s="10" t="s"/>
-      <x:c r="B3" s="9" t="n">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C3" s="9" t="n">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="n">
-        <x:v>380</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s"/>
+      <x:c r="A3" s="5" t="s"/>
+      <x:c r="B3" s="0" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="n">
+        <x:v>500</x:v>
+      </x:c>
       <x:c r="H3" s="6" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A4" s="10" t="s"/>
-      <x:c r="B4" s="9" t="n">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="C4" s="9" t="n">
-        <x:v>-5</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="n">
-        <x:v>-200</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s"/>
+      <x:c r="A4" s="5" t="s"/>
+      <x:c r="C4" s="1" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
       <x:c r="H4" s="6" t="n">
-        <x:v>22</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A5" s="5" t="s"/>
-      <x:c r="B5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="n">
-        <x:v>15</x:v>
-      </x:c>
       <x:c r="H5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="H6" s="6" t="n">
-        <x:v>195</x:v>
+        <x:v>500</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A7" s="5" t="s"/>
-      <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
-      <x:c r="E7" s="0" t="s"/>
       <x:c r="H7" s="6" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A8" s="5" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
       <x:c r="H8" s="6" t="n">
-        <x:v>8.86363636363636</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="B9" s="6" t="s"/>
+      <x:c r="C9" s="0" t="s"/>
       <x:c r="H9" s="6" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A10" s="5" t="s"/>
-      <x:c r="C10" s="0" t="s"/>
-      <x:c r="D10" s="0" t="s"/>
       <x:c r="H10" s="6" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="A11" s="11" t="s"/>
-      <x:c r="B11" s="0" t="s"/>
-      <x:c r="C11" s="0" t="s"/>
-      <x:c r="D11" s="0" t="s"/>
-      <x:c r="E11" s="0" t="s"/>
       <x:c r="H11" s="6" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H12" s="6" t="n">
-        <x:v>40</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1112,9 +1069,8 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="D14" s="0" t="s"/>
       <x:c r="H14" s="7" t="n">
-        <x:v>-195</x:v>
+        <x:v>-500</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1124,14 +1080,11 @@
       <x:c r="H16" s="6" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
-    <x:row r="21" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="B21" s="0" t="s"/>
+    <x:row r="25" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D25" s="0" t="s"/>
     </x:row>
     <x:row r="27" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="D27" s="8" t="s"/>
-    </x:row>
-    <x:row r="32" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="G32" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="true"/>
@@ -1155,13 +1108,13 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="false"/>
   </x:sheetPr>
-  <x:dimension ref="A1:H27"/>
+  <x:dimension ref="A1:H32"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="D27" sqref="D27"/>
+    <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
+      <x:selection activeCell="E7" sqref="E7"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="12.956406" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -1201,6 +1154,212 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A3" s="10" t="s"/>
+      <x:c r="B3" s="9" t="n">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C3" s="9" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="H3" s="6" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A4" s="10" t="s"/>
+      <x:c r="B4" s="9" t="n">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C4" s="9" t="n">
+        <x:v>-5</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>-200</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="H4" s="6" t="n">
+        <x:v>22</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A5" s="5" t="s"/>
+      <x:c r="B5" s="1" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H5" s="6" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A6" s="5" t="s"/>
+      <x:c r="B6" s="1" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E6" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="n">
+        <x:v>195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A7" s="5" t="s"/>
+      <x:c r="B7" s="0" t="s"/>
+      <x:c r="C7" s="1" t="s"/>
+      <x:c r="E7" s="0" t="s"/>
+      <x:c r="H7" s="6" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A8" s="5" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="H8" s="6" t="n">
+        <x:v>8.86363636363636</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A9" s="0" t="s"/>
+      <x:c r="B9" s="6" t="s"/>
+      <x:c r="H9" s="6" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A10" s="5" t="s"/>
+      <x:c r="C10" s="0" t="s"/>
+      <x:c r="D10" s="0" t="s"/>
+      <x:c r="H10" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A11" s="11" t="s"/>
+      <x:c r="B11" s="0" t="s"/>
+      <x:c r="C11" s="0" t="s"/>
+      <x:c r="D11" s="0" t="s"/>
+      <x:c r="E11" s="0" t="s"/>
+      <x:c r="H11" s="6" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="H12" s="6" t="n">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="H13" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="H14" s="7" t="n">
+        <x:v>-195</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="H15" s="6" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="H16" s="6" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
+    <x:row r="21" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="B21" s="0" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D27" s="8" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="G32" s="0" t="s"/>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="true"/>
+  <x:pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="0" pageOrder="downThenOver" orientation="portrait" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="1" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
+    <x:oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</x:oddHeader>
+    <x:oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Страница &amp;P</x:oddFooter>
+    <x:evenHeader/>
+    <x:evenFooter/>
+    <x:firstHeader/>
+    <x:firstFooter/>
+  </x:headerFooter>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr filterMode="false">
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+    <x:pageSetUpPr fitToPage="false"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:H27"/>
+  <x:sheetViews>
+    <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
+      <x:selection activeCell="D27" sqref="D27"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:cols>
+    <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="18.47" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="18.06" style="2" customWidth="1"/>
+    <x:col min="5" max="5" width="28.34" style="1" customWidth="1"/>
+    <x:col min="6" max="7" width="11.52" style="1" customWidth="1"/>
+    <x:col min="8" max="8" width="23.61" style="1" customWidth="1"/>
+    <x:col min="9" max="1023" width="11.52" style="1" customWidth="1"/>
+    <x:col min="1024" max="1024" width="12.25" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="A1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:1024" s="13" customFormat="1" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D2" s="14" t="s"/>
+      <x:c r="H2" s="13" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A3" s="5" t="s"/>
       <x:c r="B3" s="9" t="n">
         <x:v>40</x:v>

--- a/example/deals.xlsx
+++ b/example/deals.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr showObjects="all" backupFile="false" codeName="ThisWorkbook"/>
   <x:workbookProtection/>
   <x:bookViews>
-    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <x:workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Template" sheetId="1" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <x:si>
     <x:t>Date</x:t>
   </x:si>
@@ -61,9 +61,6 @@
   </x:si>
   <x:si>
     <x:t>Result</x:t>
-  </x:si>
-  <x:si>
-    <x:t>staking</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -625,7 +622,7 @@
       <x:selection activeCell="A3" sqref="A3"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="12.245781" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -753,11 +750,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:H42"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="E21" sqref="E21"/>
+    <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
+      <x:selection activeCell="D19" sqref="D19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="12.245781" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -823,7 +820,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="H4" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -851,7 +848,7 @@
         <x:v>1000</x:v>
       </x:c>
       <x:c r="H6" s="1" t="n">
-        <x:v>900</x:v>
+        <x:v>800</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -869,10 +866,17 @@
       </x:c>
     </x:row>
     <x:row r="8" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
-      <x:c r="B8" s="9" t="s"/>
-      <x:c r="C8" s="9" t="s"/>
+      <x:c r="B8" s="9" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C8" s="9" t="n">
+        <x:v>-10</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="n">
+        <x:v>-100</x:v>
+      </x:c>
       <x:c r="H8" s="1" t="n">
-        <x:v>30</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -899,7 +903,7 @@
       <x:c r="A12" s="5" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="H12" s="1" t="n">
-        <x:v>5</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -909,17 +913,18 @@
     </x:row>
     <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H14" s="1" t="n">
-        <x:v>-950</x:v>
+        <x:v>-850</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="C17" s="0" t="s"/>
     </x:row>
     <x:row r="19" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D19" s="0" t="s"/>
       <x:c r="H19" s="0" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
-    <x:row r="21" spans="1:1024">
+    <x:row r="21" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="E21" s="0" t="s"/>
     </x:row>
     <x:row r="26" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -955,11 +960,11 @@
   </x:sheetPr>
   <x:dimension ref="A1:H27"/>
   <x:sheetViews>
-    <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="B3" sqref="B3"/>
+    <x:sheetView tabSelected="1" defaultGridColor="true" colorId="64" workbookViewId="0">
+      <x:selection activeCell="D14" sqref="D14"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="12.245781" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -1004,10 +1009,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>100</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D3" s="2" t="n">
-        <x:v>500</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="H3" s="6" t="s">
         <x:v>6</x:v>
@@ -1015,20 +1020,29 @@
     </x:row>
     <x:row r="4" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A4" s="5" t="s"/>
-      <x:c r="C4" s="1" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
+      <x:c r="B4" s="1" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="n">
+        <x:v>-20</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>-200</x:v>
+      </x:c>
       <x:c r="H4" s="6" t="n">
-        <x:v>100</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="C5" s="1" t="s"/>
       <x:c r="H5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H6" s="6" t="n">
-        <x:v>500</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1038,7 +1052,7 @@
     </x:row>
     <x:row r="8" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H8" s="6" t="n">
-        <x:v>5</x:v>
+        <x:v>2.14285714285714</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1059,7 +1073,7 @@
     </x:row>
     <x:row r="12" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H12" s="6" t="n">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1069,11 +1083,13 @@
       </x:c>
     </x:row>
     <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="D14" s="0" t="s"/>
       <x:c r="H14" s="7" t="n">
-        <x:v>-500</x:v>
+        <x:v>-75</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="E15" s="0" t="s"/>
       <x:c r="H15" s="6" t="s"/>
     </x:row>
     <x:row r="16" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1111,10 +1127,10 @@
   <x:dimension ref="A1:H32"/>
   <x:sheetViews>
     <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="E7" sqref="E7"/>
+      <x:selection activeCell="E19" sqref="E19"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="12.245781" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -1182,46 +1198,25 @@
       </x:c>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="H4" s="6" t="n">
-        <x:v>22</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A5" s="5" t="s"/>
-      <x:c r="B5" s="1" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="n">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="C5" s="1" t="s"/>
       <x:c r="H5" s="6" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A6" s="5" t="s"/>
-      <x:c r="B6" s="1" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D6" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E6" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
       <x:c r="H6" s="6" t="n">
-        <x:v>195</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="A7" s="5" t="s"/>
       <x:c r="B7" s="0" t="s"/>
-      <x:c r="C7" s="1" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="H7" s="6" t="s">
         <x:v>8</x:v>
@@ -1231,7 +1226,7 @@
       <x:c r="A8" s="5" t="s"/>
       <x:c r="D8" s="0" t="s"/>
       <x:c r="H8" s="6" t="n">
-        <x:v>8.86363636363636</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1246,7 +1241,7 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="H10" s="6" t="n">
-        <x:v>1</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1273,7 +1268,7 @@
     <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="D14" s="0" t="s"/>
       <x:c r="H14" s="7" t="n">
-        <x:v>-195</x:v>
+        <x:v>-180</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1281,6 +1276,9 @@
     </x:row>
     <x:row r="16" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H16" s="6" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
+      <x:c r="E19" s="0" t="s"/>
     </x:row>
     <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
     <x:row r="21" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1317,10 +1315,10 @@
   <x:dimension ref="A1:H27"/>
   <x:sheetViews>
     <x:sheetView defaultGridColor="true" colorId="64" workbookViewId="0">
-      <x:selection activeCell="D27" sqref="D27"/>
+      <x:selection activeCell="B6" sqref="B6"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="13.667031" defaultRowHeight="13.8" zeroHeight="false"/>
+  <x:sheetFormatPr defaultColWidth="12.245781" defaultRowHeight="13.8" zeroHeight="false"/>
   <x:cols>
     <x:col min="1" max="1" width="14.31" style="1" customWidth="1"/>
     <x:col min="2" max="2" width="15.68" style="1" customWidth="1"/>
@@ -1391,13 +1389,13 @@
     </x:row>
     <x:row r="5" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="B5" s="9" t="n">
-        <x:v>29.1666666666667</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C5" s="9" t="n">
         <x:v>12</x:v>
       </x:c>
       <x:c r="D5" s="2" t="n">
-        <x:v>350</x:v>
+        <x:v>336</x:v>
       </x:c>
       <x:c r="H5" s="1" t="s">
         <x:v>7</x:v>
@@ -1408,7 +1406,7 @@
       <x:c r="C6" s="9" t="s"/>
       <x:c r="D6" s="0" t="s"/>
       <x:c r="H6" s="1" t="n">
-        <x:v>530</x:v>
+        <x:v>516</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1420,7 +1418,7 @@
     <x:row r="8" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="C8" s="0" t="s"/>
       <x:c r="H8" s="1" t="n">
-        <x:v>31.1764705882353</x:v>
+        <x:v>30.3529411764706</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1431,7 +1429,7 @@
     </x:row>
     <x:row r="10" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H10" s="1" t="n">
-        <x:v>29.1666666666667</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
@@ -1451,7 +1449,7 @@
     </x:row>
     <x:row r="14" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0">
       <x:c r="H14" s="1" t="n">
-        <x:v>-530</x:v>
+        <x:v>-516</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:1024" ht="13.8" customHeight="1" outlineLevel="0"/>
